--- a/assets/disciplinas/LOM3115.xlsx
+++ b/assets/disciplinas/LOM3115.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,37 +70,40 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>1033242 - Fábio Herbst Florenzano</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Semestral</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Projetos pré-estruturados de aplicações potenciais de polímeros realizados emgrupo com apresentação de texto escrito e seminário.</t>
-  </si>
-  <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Semestral</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
-  </si>
-  <si>
-    <t>Critério:</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
@@ -598,26 +601,26 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -635,10 +638,10 @@
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -646,32 +649,32 @@
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3115.xlsx
+++ b/assets/disciplinas/LOM3115.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Oferecer ao estudante uma visão ampla sobre aplicações contemporâneas e futuras de materiais poliméricos em áreas como a Engenharia de Materiais, Biomedicina, Nanotecnologia e outras.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1033242 - Fábio Herbst Florenzano</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Visão geral da Ciência de Polímeros; aplicações atuais e futuras de materiais poliméricos avançados; síntese de polímeros dirigida para aplicações específicas.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>- Introdução à Ciência e Tecnologia de Polímeros.- Considerações sobre a síntese de materiais poliméricos avançados.- Polímeros com propriedades mecânicas excepcionais.- Polímeros com memória de forma.- Aplicações selecionadas de polímeros em:- transporte de fármacos (drug delivery);- transformação de células (transfecção);- próteses de base polimérica para uso em humanos;- nanorreatores/catálise;- descontaminação de corpos d ́água e outras aplicações relacionadas ao meio-ambiente;- eletrônica/polímeros condutores;- agricultura- revestimentos (coatings) ativos de superfícies.- recuperação avançada de petróleo.- Polímeros foto/bio/oxidegradáveis- Polímeros e os seres vivos/Biopolímeros.- Relações estrutura/propriedades dos materiais poliméricos</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Projetos pré-estruturados de aplicações potenciais de polímeros realizados emgrupo com apresentação de texto escrito e seminário.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Projetos pré-estruturados de aplicações potenciais de polímeros realizados emgrupo com apresentação de texto escrito e seminário.</t>
+    <t>As notas (0 a 10) serão atribuídas conforme avaliação do projeto escrito e da apresentação do seminário. A nota mínima 5 é exigida para aprovação na disciplina.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>As notas (0 a 10) serão atribuídas conforme avaliação do projeto escrito e da apresentação do seminário. A nota mínima 5 é exigida para aprovação na disciplina.</t>
+    <t>Não há recuperação para esta disciplina.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Não há recuperação para esta disciplina.</t>
+    <t>1 - Akcelrud, L. Fundamentos da Ciência dos Polímeros. 1a. Edição. São Paulo:Editora Manole, 2006. ISBN: 978-8-85-2041561-0; 2 - AlMaadeed, M. A. A.; Ponnamma, D.; Carignano, M. A. Polymer Science and. 3 - Innovative Applications – Materials, Techniques and Future Developments, 1st edition. Amsterdã: Elsevier, 2020. ISBN: 978-0-12-816808-0. 4 - Canevarolo Jr., S. V.; Ciência dos Polímeros: Um Texto Básico para Tecnólogos e Engenheiros. 3a. Edição. São Paulo: ArtLiber, 2010. ISBN: 978-8-58-809810-7. 5 - Carraher, C. E. Introduction to Polymer Chemistry, 4th edition, Boca Raton: CRC Press – Taylor and Francis, 2017. ISBN: 978-1-4987-3761-6; 6 - Narain, R. Polymer Science and Nanotecnology: Fundamentals and Applications, 1 st edition. Amsterdã: Elsevier, 2020 ISBN: 978-0-12-816806-6; 7 - Lendlein, A. Shape-Memory Polymers, 1st Edition, Berlim: Springer-Velag, 2010. ISBN 978-3-642-12358-0; 8 - Rangelov, S.; Pispas, S. Polymer and Polymer-Hybrid Nanoparticles. 1st edition. 9 - Boca Raton: CRC Press, 2014. ISBN: 978-1-4398-6909-3</t>
   </si>
 </sst>
 </file>
@@ -471,13 +480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -596,85 +605,93 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
